--- a/biology/Botanique/Jamrosat/Jamrosat.xlsx
+++ b/biology/Botanique/Jamrosat/Jamrosat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syzygium jambos, jambosier, Pomme rose
 Le jamrosat (Syzygium jambos), aussi appelé jambrosade, jambosier, jam-rose ou encore pomme rose, est un arbre de la famille des Myrtacées, originaire de la région indo-malaise.
@@ -514,14 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'arbre peut atteindre une quinzaine de mètres de hauteur[2].
-Feuilles
-Les feuilles, opposées, sont  lancéolées, longuement acuminées et de couleur vert brillant. Elles mesurent 10 à 23 centimètres de long et 2,5 à 5 centimètres de large[2]. Les jeunes feuilles sont roses à rouges[3].
-Fleurs
-Les fleurs, disposées en bouquets sommitaux, sont caractéristiques des Myrtacées, avec environ 200 spectaculaires étamines de couleur crème.
-Fruits
-Le fruit est une baie de 3 à 5 cm de diamètre[4], pouvant aller du jaune pâle au rouge foncé, dont les tissus internes se distendent formant ainsi un fruit « creux » contenant souvent une graine unique devenue libre comme dans un grelot. Le fruit est comestible. La chair a la consistance d'une pomme croquante et peut avoir le parfum de la rose, d'où les noms qui sont attribués tant à l'arbre qu'à son fruit. Ce dernier peut être consommé cru ou servir à des préparations de liqueurs parfumées.
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre peut atteindre une quinzaine de mètres de hauteur.
 </t>
         </is>
       </c>
@@ -547,16 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Originaire de la région indo-malaise, l'espèce a été introduite dans de nombreuses régions tropicales comme arbre fruitier[2].
-Elle affectionne les climats chauds et humides ou, lorsque le climat est un peu plus sec, se cantonne dans les ravins ombragés ou près des cours d'eau.
-Caractère envahissant
-L'espèce montre un caractère envahissant très fort, notamment à La Réunion et en Nouvelle-Calédonie[2]. Elle supplante alors les formations végétales naturelles indigènes.
-En Nouvelle-Calédonie, elle envahit les forêts intactes ; son impact dans la zone de Farino et Sarraméa est important[5].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles, opposées, sont  lancéolées, longuement acuminées et de couleur vert brillant. Elles mesurent 10 à 23 centimètres de long et 2,5 à 5 centimètres de large. Les jeunes feuilles sont roses à rouges.
 </t>
         </is>
       </c>
@@ -582,10 +595,158 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs, disposées en bouquets sommitaux, sont caractéristiques des Myrtacées, avec environ 200 spectaculaires étamines de couleur crème.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jamrosat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jamrosat</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une baie de 3 à 5 cm de diamètre, pouvant aller du jaune pâle au rouge foncé, dont les tissus internes se distendent formant ainsi un fruit « creux » contenant souvent une graine unique devenue libre comme dans un grelot. Le fruit est comestible. La chair a la consistance d'une pomme croquante et peut avoir le parfum de la rose, d'où les noms qui sont attribués tant à l'arbre qu'à son fruit. Ce dernier peut être consommé cru ou servir à des préparations de liqueurs parfumées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jamrosat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jamrosat</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de la région indo-malaise, l'espèce a été introduite dans de nombreuses régions tropicales comme arbre fruitier.
+Elle affectionne les climats chauds et humides ou, lorsque le climat est un peu plus sec, se cantonne dans les ravins ombragés ou près des cours d'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jamrosat</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jamrosat</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce montre un caractère envahissant très fort, notamment à La Réunion et en Nouvelle-Calédonie. Elle supplante alors les formations végétales naturelles indigènes.
+En Nouvelle-Calédonie, elle envahit les forêts intactes ; son impact dans la zone de Farino et Sarraméa est important.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jamrosat</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jamrosat</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En vieux sanskrit, l'Inde actuelle était appelée par les Indiens eux-mêmes Jambudvipa, qui signifie "pays des jamrosats" (jambu = jamrosat ; dvipa = pays). En khmer, le fruit est appelé "dak-mei" (ដកម៉ៃ).
 </t>
